--- a/Screenflow&Wireframe.xlsx
+++ b/Screenflow&Wireframe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongPengWen\Downloads\Full Stack Developer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongPengWen\Documents\GitHub\eMart-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F912131-66F1-4BF1-83A9-FF9A0C36A396}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077B614B-E9FD-4299-B35A-09CD1B79978E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{089AA913-2C71-44F6-B2F2-899464A172E3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>User Name</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Purchase History</t>
+  </si>
+  <si>
+    <t>No. of sold Items</t>
   </si>
 </sst>
 </file>
@@ -369,6 +372,30 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="31" sel="0" val="0"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="31" sel="0" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="31" sel="0" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="31" sel="0" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="31" sel="0" val="0"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
@@ -413,7 +440,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -497,7 +524,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -581,7 +608,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -681,7 +708,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -765,7 +792,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -849,7 +876,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -933,7 +960,7 @@
         <xdr:cNvPr id="8" name="Flowchart: Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1006,7 +1033,7 @@
         <xdr:cNvPr id="10" name="Connector: Elbow 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1065,7 +1092,7 @@
         <xdr:cNvPr id="12" name="Connector: Elbow 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1125,7 +1152,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,7 +1211,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1270,7 @@
         <xdr:cNvPr id="18" name="Connector: Elbow 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,7 +1330,7 @@
         <xdr:cNvPr id="21" name="Connector: Elbow 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1389,7 @@
         <xdr:cNvPr id="25" name="Rectangle 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1473,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,7 +1533,7 @@
         <xdr:cNvPr id="30" name="Connector: Elbow 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1597,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1670,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1738,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1811,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1870,7 +1897,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1956,7 +1983,7 @@
                   <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1978,7 +2005,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -2025,7 +2052,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2125,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2193,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2261,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2329,7 @@
         <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2402,7 @@
                   <a14:compatExt spid="_x0000_s5123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2397,7 +2424,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -2439,7 +2466,7 @@
         <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2539,7 @@
         <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,7 +2607,7 @@
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,7 +2675,7 @@
         <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,7 +2743,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2816,7 @@
                   <a14:compatExt spid="_x0000_s5124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2811,7 +2838,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -2853,7 +2880,7 @@
         <xdr:cNvPr id="16" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2921,7 +2948,7 @@
         <xdr:cNvPr id="17" name="Rectangle 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2989,7 +3016,7 @@
         <xdr:cNvPr id="18" name="Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3057,7 +3084,7 @@
         <xdr:cNvPr id="19" name="Rectangle 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3125,7 +3152,7 @@
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,7 +3220,7 @@
         <xdr:cNvPr id="21" name="Rectangle 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,7 +3293,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3339,7 +3366,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3412,7 +3439,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3434,7 +3461,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -3476,7 +3503,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3520,7 +3547,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,7 +3608,7 @@
         <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3694,7 @@
         <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3745,7 +3772,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3818,7 +3845,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3900,7 +3927,7 @@
                   <a14:compatExt spid="_x0000_s10241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3922,7 +3949,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -3964,7 +3991,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4052,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4116,7 +4143,7 @@
                   <a14:compatExt spid="_x0000_s10245"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4169,7 +4196,7 @@
         <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4244,7 +4271,7 @@
         <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4324,7 +4351,7 @@
                   <a14:compatExt spid="_x0000_s10246"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4346,7 +4373,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4388,7 +4415,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4449,7 +4476,7 @@
         <xdr:cNvPr id="16" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4540,7 +4567,7 @@
                   <a14:compatExt spid="_x0000_s10250"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4562,7 +4589,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4604,7 +4631,7 @@
         <xdr:cNvPr id="19" name="Rectangle 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4711,7 +4738,7 @@
                   <a14:compatExt spid="_x0000_s10251"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4733,7 +4760,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4770,7 +4797,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4831,7 +4858,7 @@
         <xdr:cNvPr id="22" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4922,7 +4949,7 @@
                   <a14:compatExt spid="_x0000_s10252"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4944,7 +4971,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4986,7 +5013,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5047,7 +5074,7 @@
         <xdr:cNvPr id="26" name="Rectangle 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5125,7 +5152,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5198,7 +5225,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5280,7 +5307,7 @@
                   <a14:compatExt spid="_x0000_s7169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000011C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000011C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5302,7 +5329,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5344,7 +5371,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5405,7 +5432,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5491,7 +5518,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5552,7 +5579,7 @@
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5622,7 +5649,7 @@
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5702,7 +5729,7 @@
         <xdr:cNvPr id="21" name="Rectangle 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5794,7 +5821,7 @@
         <xdr:cNvPr id="22" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5879,7 +5906,7 @@
                   <a14:compatExt spid="_x0000_s7175"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000071C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000071C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5901,7 +5928,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5948,7 +5975,7 @@
                   <a14:compatExt spid="_x0000_s7176"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000081C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000081C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5970,7 +5997,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -6012,7 +6039,7 @@
         <xdr:cNvPr id="25" name="Rectangle 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6092,7 +6119,7 @@
         <xdr:cNvPr id="26" name="Rectangle 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6184,7 +6211,7 @@
         <xdr:cNvPr id="27" name="Rectangle 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6276,7 +6303,7 @@
         <xdr:cNvPr id="28" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6368,7 +6395,7 @@
         <xdr:cNvPr id="29" name="Rectangle 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6460,7 +6487,7 @@
         <xdr:cNvPr id="30" name="Rectangle 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6552,7 +6579,7 @@
         <xdr:cNvPr id="31" name="Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6630,7 +6657,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6703,7 +6730,7 @@
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6794,7 +6821,7 @@
                   <a14:compatExt spid="_x0000_s8196"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6816,7 +6843,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -6858,7 +6885,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6977,7 +7004,7 @@
                   <a14:compatExt spid="_x0000_s8197"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6999,7 +7026,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7041,7 +7068,7 @@
         <xdr:cNvPr id="17" name="Rectangle 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7144,7 +7171,7 @@
                   <a14:compatExt spid="_x0000_s8198"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7166,7 +7193,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7208,7 +7235,7 @@
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7281,7 +7308,7 @@
         <xdr:cNvPr id="21" name="Rectangle 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7367,7 +7394,7 @@
         <xdr:cNvPr id="22" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7458,7 +7485,7 @@
                   <a14:compatExt spid="_x0000_s8199"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7480,7 +7507,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7527,7 +7554,7 @@
                   <a14:compatExt spid="_x0000_s8200"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7549,7 +7576,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7596,7 +7623,7 @@
                   <a14:compatExt spid="_x0000_s8201"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7618,7 +7645,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7660,7 +7687,7 @@
         <xdr:cNvPr id="28" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7746,7 +7773,7 @@
         <xdr:cNvPr id="29" name="Rectangle 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7837,7 +7864,7 @@
                   <a14:compatExt spid="_x0000_s8202"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7859,7 +7886,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7906,7 +7933,7 @@
                   <a14:compatExt spid="_x0000_s8203"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7928,7 +7955,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7975,7 +8002,7 @@
                   <a14:compatExt spid="_x0000_s8204"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7997,7 +8024,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -8039,7 +8066,7 @@
         <xdr:cNvPr id="33" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8112,7 +8139,7 @@
         <xdr:cNvPr id="34" name="Rectangle 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8198,7 +8225,7 @@
         <xdr:cNvPr id="36" name="Rectangle 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8312,7 +8339,7 @@
         <xdr:cNvPr id="38" name="Rectangle 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8410,7 +8437,7 @@
         <xdr:cNvPr id="40" name="Rectangle 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8483,7 +8510,7 @@
         <xdr:cNvPr id="41" name="Rectangle 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8569,7 +8596,7 @@
         <xdr:cNvPr id="42" name="Rectangle 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8660,7 +8687,7 @@
                   <a14:compatExt spid="_x0000_s8208"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8682,7 +8709,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -8729,7 +8756,7 @@
                   <a14:compatExt spid="_x0000_s8209"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8751,7 +8778,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -8798,7 +8825,7 @@
                   <a14:compatExt spid="_x0000_s8210"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8820,7 +8847,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -8867,7 +8894,7 @@
                   <a14:compatExt spid="_x0000_s8213"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8889,7 +8916,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -8920,15 +8947,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8936,7 +8963,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8944,8 +8971,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1447800" y="158750"/>
-          <a:ext cx="3581400" cy="4654550"/>
+          <a:off x="1447800" y="133350"/>
+          <a:ext cx="3771900" cy="5048250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8993,15 +9020,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9009,7 +9036,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9061,15 +9088,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9077,7 +9104,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9131,15 +9158,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>146050</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>6350</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9150,7 +9177,7 @@
                   <a14:compatExt spid="_x0000_s9217"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000001240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9172,7 +9199,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -9198,15 +9225,15 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9214,7 +9241,7 @@
         <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9266,15 +9293,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9282,7 +9309,7 @@
         <xdr:cNvPr id="9" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9334,15 +9361,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9350,7 +9377,7 @@
         <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9402,15 +9429,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9418,7 +9445,7 @@
         <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9470,15 +9497,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9486,7 +9513,7 @@
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9538,15 +9565,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9554,7 +9581,7 @@
         <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9608,15 +9635,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>3</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>120650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9627,7 +9654,7 @@
                   <a14:compatExt spid="_x0000_s9218"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9666,15 +9693,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>3</xdr:col>
           <xdr:colOff>127000</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>120650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9685,7 +9712,7 @@
                   <a14:compatExt spid="_x0000_s9219"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9722,23 +9749,23 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:rowOff>103717</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9746,7 +9773,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="171450"/>
+          <a:off x="4470400" y="158750"/>
           <a:ext cx="577850" cy="313267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9787,6 +9814,1620 @@
               </a:solidFill>
             </a:rPr>
             <a:t>logout</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEF454A-9C6D-4B62-856E-E2901A531D94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1536700" y="450850"/>
+          <a:ext cx="812800" cy="313267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Add Item</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43C8112-F9A2-448F-ADF5-8BF0243A2FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2927350" y="431800"/>
+          <a:ext cx="927100" cy="313267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>View</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Stock</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E4E452-6C07-4107-BA01-3243CAAFBCCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4356100" y="425450"/>
+          <a:ext cx="698500" cy="313267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Reports</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750EF941-F84D-48F7-A8ED-B0228FE7F492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="133350"/>
+          <a:ext cx="3771900" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20D02D7-B8AA-4BD0-B124-BD734292880A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7442200" y="1670050"/>
+          <a:ext cx="1365250" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>158750</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>107950</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>31750</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9220" name="Button 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9220"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B741B0E1-551E-4555-92C1-2FDE46085EEC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>View</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6EBCC8D-AD72-4F0E-AD39-A616FED546B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="2025650"/>
+          <a:ext cx="1365250" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655C3AEA-CEDA-4F69-A11E-845ECD282285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="2413000"/>
+          <a:ext cx="1365250" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1314450" cy="292100"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9221" name="List Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9221"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14B1834-D0B6-4EA9-B2D6-C799E7BA0086}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>127000</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1320800" cy="292100"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9222" name="List Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9222"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CFA54E-60CF-474B-B331-223AF29F8CD7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>103717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A18501-C73D-4660-B401-D850305821D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4470400" y="158750"/>
+          <a:ext cx="577850" cy="313267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>logout</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DA223E-32D7-4733-914A-9D5AED9AFEE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1536700" y="450850"/>
+          <a:ext cx="812800" cy="313267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Add Item</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9117C5-8E2B-47EF-9C2F-27D9B860B079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2927350" y="431800"/>
+          <a:ext cx="927100" cy="313267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>View</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Stock</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416776C1-C266-4510-BC11-9740CAA0E364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4356100" y="425450"/>
+          <a:ext cx="698500" cy="313267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Reports</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D598EE-AF98-46D9-A3E2-991F3B39B803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="133350"/>
+          <a:ext cx="3771900" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2300B819-20C6-496B-A5BD-43A90E570C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7442200" y="1670050"/>
+          <a:ext cx="1365250" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>273050</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9223" name="Button 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9223"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E382AF-4D3B-47ED-8A53-1CFB1594775C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>CSV</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1314450" cy="292100"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9224" name="List Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9224"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552222D9-3C22-4C96-AD70-F12F3F8708AD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>127000</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1320800" cy="292100"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9225" name="List Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9225"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7FD050-60C4-42B2-933C-E838EEA5DBD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>103717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD07F30-E774-4E49-BF82-B0F94C589699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8737600" y="158750"/>
+          <a:ext cx="577850" cy="313267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>logout</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3E4B4E-877E-4691-B996-D2DD57ED11E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5803900" y="450850"/>
+          <a:ext cx="812800" cy="313267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Add Item</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18EF36D1-2FB4-4AA3-99BD-466AB2757C4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7194550" y="431800"/>
+          <a:ext cx="927100" cy="313267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>View</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Stock</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EEFDD2-D1F3-4210-99F8-24C2058C5B9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8623300" y="425450"/>
+          <a:ext cx="698500" cy="313267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Reports</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11174,66 +12815,98 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFDA01B-79A6-4B10-B483-331F398E600D}">
-  <dimension ref="D4:G22"/>
+  <dimension ref="B6:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D4" s="1" t="s">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D6" s="1" t="s">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D8" s="1" t="s">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D10" s="1" t="s">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="I12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="S12" s="2"/>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D14" s="1" t="s">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="I14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D16" s="1" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="5" t="s">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="I20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="1" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D22" s="1" t="s">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -11250,15 +12923,15 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>146050</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>6350</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
                   </to>
                 </anchor>
@@ -11272,15 +12945,15 @@
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
-                    <xdr:row>3</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>6</xdr:row>
                     <xdr:rowOff>120650</xdr:rowOff>
                   </to>
                 </anchor>
@@ -11294,15 +12967,147 @@
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>120650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9220" r:id="rId6" name="Button 4">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>158750</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>31750</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9221" r:id="rId7" name="List Box 5">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>12</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>6</xdr:row>
+                    <xdr:rowOff>120650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9222" r:id="rId8" name="List Box 6">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>120650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9223" r:id="rId9" name="Button 7">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>273050</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>18</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9224" r:id="rId10" name="List Box 8">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>19</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>120650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9225" r:id="rId11" name="List Box 9">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>19</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>120650</xdr:rowOff>
                   </to>
                 </anchor>

--- a/Screenflow&Wireframe.xlsx
+++ b/Screenflow&Wireframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongPengWen\Documents\GitHub\eMart-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077B614B-E9FD-4299-B35A-09CD1B79978E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CE64CD-866A-4E71-B301-197FE60773EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{089AA913-2C71-44F6-B2F2-899464A172E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="673" xr2:uid="{089AA913-2C71-44F6-B2F2-899464A172E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Screenflow" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Search Result" sheetId="10" r:id="rId5"/>
     <sheet name="ItemDetail" sheetId="7" r:id="rId6"/>
     <sheet name="Cart" sheetId="8" r:id="rId7"/>
-    <sheet name="ItemAdd" sheetId="9" r:id="rId8"/>
+    <sheet name="Purchase History" sheetId="11" r:id="rId8"/>
+    <sheet name="ItemAdd" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1574,6 +1575,150 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCE0D16-D7D8-443B-8E81-044E63740681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="3981450"/>
+          <a:ext cx="1619250" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Purchase History</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Purchase History Page </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F2AC5A-5AD3-4101-8BE9-91A213A045C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="3441700"/>
+          <a:ext cx="0" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2005,7 +2150,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -2424,7 +2569,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -2838,7 +2983,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -3461,7 +3606,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -3949,7 +4094,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4373,7 +4518,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4589,7 +4734,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4760,7 +4905,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4971,7 +5116,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5329,7 +5474,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5928,7 +6073,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5997,7 +6142,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -6843,7 +6988,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7026,7 +7171,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7193,7 +7338,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7507,7 +7652,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7576,7 +7721,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7645,7 +7790,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7886,7 +8031,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -7955,7 +8100,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -8024,7 +8169,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -8048,25 +8193,30 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>98778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>465668</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>176389</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectangle 32">
+        <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4C0291-FD9D-412C-BFDB-75B0434A145E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8074,8 +8224,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="835379" y="465667"/>
-          <a:ext cx="8125178" cy="4529666"/>
+          <a:off x="9982201" y="467078"/>
+          <a:ext cx="8161867" cy="3995561"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8123,23 +8273,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>105833</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>91722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>35279</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>105127</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rectangle 33">
+        <xdr:cNvPr id="21" name="Rectangle 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C5A7E9-8506-4CED-8E17-C32E1B323449}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8147,8 +8297,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1319389" y="1559278"/>
-          <a:ext cx="7210779" cy="613127"/>
+          <a:off x="10469033" y="1564922"/>
+          <a:ext cx="7244646" cy="616655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8209,23 +8359,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>105833</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>40922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>35279</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>105127</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Rectangle 35">
+        <xdr:cNvPr id="22" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1308602-829A-45F1-93F2-209BDDAD2118}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8233,8 +8383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1319389" y="2291644"/>
-          <a:ext cx="7210779" cy="614539"/>
+          <a:off x="10469033" y="2301522"/>
+          <a:ext cx="7244646" cy="616655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8323,23 +8473,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>105833</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>40922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>35279</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>105127</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectangle 37">
+        <xdr:cNvPr id="23" name="Rectangle 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6E66B6-A39E-45E0-BA5A-6A53B1B4115C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8347,8 +8497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1319389" y="3025422"/>
-          <a:ext cx="7210779" cy="614538"/>
+          <a:off x="10469033" y="3038122"/>
+          <a:ext cx="7244646" cy="616655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8421,23 +8571,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>303389</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>419101</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>129823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 39">
+        <xdr:cNvPr id="24" name="Rectangle 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89154A4-594C-419C-937E-6D3D3D637A66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8445,8 +8595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191500" y="550334"/>
-          <a:ext cx="722490" cy="313267"/>
+          <a:off x="17372189" y="552451"/>
+          <a:ext cx="725312" cy="313972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8494,23 +8644,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>98778</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rectangle 40">
+        <xdr:cNvPr id="25" name="Rectangle 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDCE758-2DE6-47E8-9518-97EE053F67C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8518,8 +8668,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1213556" y="1100667"/>
-          <a:ext cx="705555" cy="268111"/>
+          <a:off x="10363200" y="1104900"/>
+          <a:ext cx="708378" cy="268817"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8580,23 +8730,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>130528</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 41">
+        <xdr:cNvPr id="26" name="Rectangle 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB8ABD95-E246-4E9A-9CDB-F77BDE543282}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8604,8 +8754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2427111" y="1100667"/>
-          <a:ext cx="1334206" cy="313972"/>
+          <a:off x="11582400" y="1104900"/>
+          <a:ext cx="1339850" cy="314678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8668,26 +8818,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>26</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>469900</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>107950</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>28</xdr:col>
+          <xdr:col>13</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8208" name="Button 16" hidden="1">
+            <xdr:cNvPr id="14346" name="Button 10" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8208"/>
+                  <a14:compatExt spid="_x0000_s14346"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D872A18-BFED-4AA7-8C09-5195D1ACAE06}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8709,7 +8859,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -8737,26 +8887,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>26</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>469900</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>28</xdr:col>
+          <xdr:col>13</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>120650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8209" name="Button 17" hidden="1">
+            <xdr:cNvPr id="14347" name="Button 11" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8209"/>
+                  <a14:compatExt spid="_x0000_s14347"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF56EF7D-97FE-42AD-A7C5-BA2909136A29}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8778,7 +8928,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -8806,26 +8956,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>26</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>469900</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>28</xdr:col>
+          <xdr:col>13</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>120650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8210" name="Button 18" hidden="1">
+            <xdr:cNvPr id="14348" name="Button 12" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8210"/>
+                  <a14:compatExt spid="_x0000_s14348"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0166FD-0E7E-4859-B6C4-8055A490424A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8847,7 +8997,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -8875,26 +9025,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>25</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>558800</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8213" name="Button 21" hidden="1">
+            <xdr:cNvPr id="14349" name="Button 13" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8213"/>
+                  <a14:compatExt spid="_x0000_s14349"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636D841F-55A1-4995-93A1-FD5F2A10D103}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8916,7 +9066,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -8943,7 +9093,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9199,7 +9349,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -9838,7 +9988,7 @@
         <xdr:cNvPr id="15" name="Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEF454A-9C6D-4B62-856E-E2901A531D94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9911,7 +10061,7 @@
         <xdr:cNvPr id="18" name="Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43C8112-F9A2-448F-ADF5-8BF0243A2FD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9997,7 +10147,7 @@
         <xdr:cNvPr id="19" name="Rectangle 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E4E452-6C07-4107-BA01-3243CAAFBCCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10070,7 +10220,7 @@
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750EF941-F84D-48F7-A8ED-B0228FE7F492}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10143,7 +10293,7 @@
         <xdr:cNvPr id="21" name="Rectangle 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20D02D7-B8AA-4BD0-B124-BD734292880A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10216,7 +10366,7 @@
                   <a14:compatExt spid="_x0000_s9220"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B741B0E1-551E-4555-92C1-2FDE46085EEC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10238,7 +10388,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -10280,7 +10430,7 @@
         <xdr:cNvPr id="23" name="Rectangle 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6EBCC8D-AD72-4F0E-AD39-A616FED546B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10350,7 +10500,7 @@
         <xdr:cNvPr id="24" name="Rectangle 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655C3AEA-CEDA-4F69-A11E-845ECD282285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10404,14 +10554,19 @@
   </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1314450" cy="292100"/>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>120650</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9221" name="List Box 5" hidden="1">
@@ -10420,7 +10575,7 @@
                   <a14:compatExt spid="_x0000_s9221"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14B1834-D0B6-4EA9-B2D6-C799E7BA0086}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10451,20 +10606,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>127000</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1320800" cy="292100"/>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>120650</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9222" name="List Box 6" hidden="1">
@@ -10473,7 +10633,7 @@
                   <a14:compatExt spid="_x0000_s9222"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CFA54E-60CF-474B-B331-223AF29F8CD7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10504,7 +10664,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -10526,7 +10686,7 @@
         <xdr:cNvPr id="31" name="Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A18501-C73D-4660-B401-D850305821D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10599,7 +10759,7 @@
         <xdr:cNvPr id="32" name="Rectangle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DA223E-32D7-4733-914A-9D5AED9AFEE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10672,7 +10832,7 @@
         <xdr:cNvPr id="33" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9117C5-8E2B-47EF-9C2F-27D9B860B079}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10758,7 +10918,7 @@
         <xdr:cNvPr id="34" name="Rectangle 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416776C1-C266-4510-BC11-9740CAA0E364}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10831,7 +10991,7 @@
         <xdr:cNvPr id="35" name="Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D598EE-AF98-46D9-A3E2-991F3B39B803}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10904,7 +11064,7 @@
         <xdr:cNvPr id="36" name="Rectangle 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2300B819-20C6-496B-A5BD-43A90E570C5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10977,7 +11137,7 @@
                   <a14:compatExt spid="_x0000_s9223"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E382AF-4D3B-47ED-8A53-1CFB1594775C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10999,7 +11159,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -11025,14 +11185,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1314450" cy="292100"/>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>120650</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9224" name="List Box 8" hidden="1">
@@ -11041,7 +11206,7 @@
                   <a14:compatExt spid="_x0000_s9224"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552222D9-3C22-4C96-AD70-F12F3F8708AD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11072,20 +11237,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
           <xdr:colOff>127000</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1320800" cy="292100"/>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>120650</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9225" name="List Box 9" hidden="1">
@@ -11094,7 +11264,7 @@
                   <a14:compatExt spid="_x0000_s9225"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7FD050-60C4-42B2-933C-E838EEA5DBD1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11125,7 +11295,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -11147,7 +11317,7 @@
         <xdr:cNvPr id="42" name="Rectangle 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD07F30-E774-4E49-BF82-B0F94C589699}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11220,7 +11390,7 @@
         <xdr:cNvPr id="43" name="Rectangle 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3E4B4E-877E-4691-B996-D2DD57ED11E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11293,7 +11463,7 @@
         <xdr:cNvPr id="44" name="Rectangle 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18EF36D1-2FB4-4AA3-99BD-466AB2757C4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11379,7 +11549,7 @@
         <xdr:cNvPr id="45" name="Rectangle 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EEFDD2-D1F3-4210-99F8-24C2058C5B9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12447,72 +12617,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4956AC7B-262E-4EC3-8022-7F748955ECD8}">
-  <dimension ref="C2:V43"/>
+  <dimension ref="C2:G24"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C8" s="3"/>
-      <c r="R8" s="3"/>
     </row>
-    <row r="11" spans="3:22" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:7" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="4"/>
     </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
       <c r="D13"/>
-      <c r="S13"/>
     </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C14"/>
-      <c r="R14"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D17"/>
-      <c r="S17"/>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C18"/>
-      <c r="R18"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D22"/>
       <c r="E22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C23"/>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E24" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="17:21" x14ac:dyDescent="0.35">
-      <c r="U39"/>
-    </row>
-    <row r="43" spans="17:21" x14ac:dyDescent="0.35">
-      <c r="Q43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12719,19 +12871,75 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7354652-2F82-45B4-B2FF-73A410D4FBCE}">
+  <dimension ref="B2:G43"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="11" spans="3:7" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C14"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F39"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="8208" r:id="rId12" name="Button 16">
+            <control shapeId="14346" r:id="rId3" name="Button 10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>26</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>469900</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>107950</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>28</xdr:col>
+                    <xdr:col>13</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
@@ -12743,17 +12951,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="8209" r:id="rId13" name="Button 17">
+            <control shapeId="14347" r:id="rId4" name="Button 11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>26</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>469900</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>28</xdr:col>
+                    <xdr:col>13</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>120650</xdr:rowOff>
@@ -12765,17 +12973,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="8210" r:id="rId14" name="Button 18">
+            <control shapeId="14348" r:id="rId5" name="Button 12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>26</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>469900</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>28</xdr:col>
+                    <xdr:col>13</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>120650</xdr:rowOff>
@@ -12787,17 +12995,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="8213" r:id="rId15" name="Button 21">
+            <control shapeId="14349" r:id="rId6" name="Button 13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>25</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>558800</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>133350</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>27</xdr:col>
+                    <xdr:col>12</xdr:col>
                     <xdr:colOff>495300</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
@@ -12813,7 +13021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFDA01B-79A6-4B10-B483-331F398E600D}">
   <dimension ref="B6:S24"/>
   <sheetViews>
